--- a/PayrollProject/OutPutTestResult/HMRC Student Loan Scenarios Test result 201920.xlsx
+++ b/PayrollProject/OutPutTestResult/HMRC Student Loan Scenarios Test result 201920.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\OutPutTestResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE3BB9F-F35D-4993-B888-8607D3F32D00}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9706E32-F93E-4939-B322-E7A91818A36D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="7275" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="112">
   <si>
     <t>GBP 0.00</t>
   </si>
@@ -365,6 +365,9 @@
   </si>
   <si>
     <t>GBP 574.00</t>
+  </si>
+  <si>
+    <t>FALSE</t>
   </si>
 </sst>
 </file>
@@ -1824,18 +1827,18 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="45.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="28.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="44.25" customHeight="1">
@@ -1868,8 +1871,20 @@
       <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
       <c r="E2" s="20" t="s">
         <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1879,8 +1894,20 @@
       <c r="B3" s="20" t="s">
         <v>1</v>
       </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>111</v>
+      </c>
       <c r="E3" s="20" t="s">
         <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1890,8 +1917,20 @@
       <c r="B4" s="20" t="s">
         <v>105</v>
       </c>
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
       <c r="E4" s="20" t="s">
         <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1901,8 +1940,20 @@
       <c r="B5" s="20" t="s">
         <v>106</v>
       </c>
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
       <c r="E5" s="20" t="s">
         <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1912,8 +1963,20 @@
       <c r="B6" s="20" t="s">
         <v>107</v>
       </c>
+      <c r="C6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
       <c r="E6" s="20" t="s">
         <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1923,8 +1986,20 @@
       <c r="B7" s="20" t="s">
         <v>108</v>
       </c>
+      <c r="C7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
       <c r="E7" s="20" t="s">
         <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1934,8 +2009,20 @@
       <c r="B8" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
       <c r="E8" s="20" t="s">
         <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1945,8 +2032,20 @@
       <c r="B9" s="21" t="s">
         <v>1</v>
       </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>111</v>
+      </c>
       <c r="E9" s="20" t="s">
         <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1956,8 +2055,20 @@
       <c r="B10" s="21" t="s">
         <v>1</v>
       </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
       <c r="E10" s="20" t="s">
         <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1967,8 +2078,20 @@
       <c r="B11" s="21" t="s">
         <v>2</v>
       </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
       <c r="E11" s="20" t="s">
         <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1978,8 +2101,20 @@
       <c r="B12" s="21" t="s">
         <v>109</v>
       </c>
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
       <c r="E12" s="20" t="s">
         <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1989,8 +2124,20 @@
       <c r="B13" s="21" t="s">
         <v>110</v>
       </c>
+      <c r="C13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
       <c r="E13" s="20" t="s">
         <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2000,8 +2147,20 @@
       <c r="B14" s="20" t="s">
         <v>0</v>
       </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
       <c r="E14" s="21" t="s">
         <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2011,8 +2170,20 @@
       <c r="B15" s="20" t="s">
         <v>0</v>
       </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
       <c r="E15" s="21" t="s">
         <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2022,41 +2193,89 @@
       <c r="B16" s="20" t="s">
         <v>0</v>
       </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
       <c r="E16" s="21" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="23" t="s">
         <v>81</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>0</v>
       </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
       <c r="E17" s="21" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="23" t="s">
         <v>82</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>0</v>
       </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
       <c r="E18" s="21" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="23" t="s">
         <v>83</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>0</v>
       </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
       <c r="E19" s="21" t="s">
         <v>110</v>
+      </c>
+      <c r="F19" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/PayrollProject/OutPutTestResult/HMRC Student Loan Scenarios Test result 201920.xlsx
+++ b/PayrollProject/OutPutTestResult/HMRC Student Loan Scenarios Test result 201920.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\OutPutTestResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9706E32-F93E-4939-B322-E7A91818A36D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{881D9A09-1EA1-4952-89FF-5D79D056CAFF}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="7275" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="3" firstSheet="2" windowHeight="7275" windowWidth="19095" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PlanAndPGLStudentLoanWeekly" sheetId="1" r:id="rId1"/>
-    <sheet name="PlanAndPGLStudentLoan2Weekly" sheetId="2" r:id="rId2"/>
-    <sheet name="PlanAndPGLStudentLoan4Weekly" sheetId="4" r:id="rId3"/>
-    <sheet name="PlanAndPGLStudentLoanMonthly" sheetId="3" r:id="rId4"/>
+    <sheet name="PlanAndPGLStudentLoanWeekly" r:id="rId1" sheetId="1"/>
+    <sheet name="PlanAndPGLStudentLoan2Weekly" r:id="rId2" sheetId="2"/>
+    <sheet name="PlanAndPGLStudentLoan4Weekly" r:id="rId3" sheetId="4"/>
+    <sheet name="PlanAndPGLStudentLoanMonthly" r:id="rId4" sheetId="3"/>
   </sheets>
   <calcPr calcId="179021" calcMode="manual"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="120">
   <si>
     <t>GBP 0.00</t>
   </si>
@@ -368,18 +368,52 @@
   </si>
   <si>
     <t>FALSE</t>
+  </si>
+  <si>
+    <t>GBP 31.00</t>
+  </si>
+  <si>
+    <t>GBP 39.00</t>
+  </si>
+  <si>
+    <t>GBP 113.00</t>
+  </si>
+  <si>
+    <t>GBP 242.00</t>
+  </si>
+  <si>
+    <t>GBP 591.00</t>
+  </si>
+  <si>
+    <t>GBP 45.00</t>
+  </si>
+  <si>
+    <t>GBP 571.00</t>
+  </si>
+  <si>
+    <t>Major deviation hence FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
+  <fonts count="93">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -429,8 +463,512 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -455,8 +993,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -464,80 +1008,292 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+  <cellXfs count="111">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="2" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="2" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="2" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="2" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="10" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="11" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="12" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="13" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="14" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="15" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="16" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="17" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="18" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="19" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="20" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="21" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="22" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="23" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="24" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="25" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="26" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="27" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="28" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="29" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="30" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="31" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="32" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="33" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="34" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="35" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="36" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="37" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="38" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="39" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="16" fillId="0" fontId="40" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="41" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="42" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="43" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="44" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="45" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="19" fillId="0" fontId="46" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="47" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="20" fillId="0" fontId="48" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="49" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="21" fillId="0" fontId="50" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="51" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="22" fillId="0" fontId="52" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="53" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="23" fillId="0" fontId="54" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="55" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="24" fillId="0" fontId="56" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="57" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="25" fillId="0" fontId="58" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="59" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="26" fillId="0" fontId="60" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="61" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="27" fillId="0" fontId="62" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="63" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="28" fillId="0" fontId="64" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="65" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="29" fillId="0" fontId="66" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="67" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="68" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="69" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="31" fillId="0" fontId="70" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="71" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="32" fillId="0" fontId="72" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="73" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="33" fillId="0" fontId="74" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="75" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="34" fillId="0" fontId="76" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="77" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="35" fillId="0" fontId="78" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="79" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="36" fillId="0" fontId="80" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="81" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="37" fillId="0" fontId="82" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="83" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="38" fillId="0" fontId="84" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="85" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="39" fillId="0" fontId="86" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="87" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="40" fillId="0" fontId="88" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="89" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="41" fillId="0" fontId="90" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="92" fillId="0" borderId="42" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <mruColors>
       <color rgb="FFD9D9D9"/>
@@ -559,10 +1315,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -726,21 +1482,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -757,7 +1513,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -811,25 +1567,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="255" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="255.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" customHeight="1">
+    <row customHeight="1" ht="30.75" r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -852,7 +1608,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="27.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="27.75" r="2" s="1" spans="1:7">
       <c r="A2" s="12" t="s">
         <v>9</v>
       </c>
@@ -875,7 +1631,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="24.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="24.75" r="3" s="1" spans="1:7">
       <c r="A3" s="12" t="s">
         <v>10</v>
       </c>
@@ -898,7 +1654,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="23.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="23.25" r="4" s="1" spans="1:7">
       <c r="A4" s="12" t="s">
         <v>11</v>
       </c>
@@ -921,7 +1677,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="21" customHeight="1">
+    <row customHeight="1" ht="21" r="5" spans="1:7">
       <c r="A5" s="12" t="s">
         <v>12</v>
       </c>
@@ -944,7 +1700,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="24" customHeight="1">
+    <row customHeight="1" ht="24" r="6" spans="1:7">
       <c r="A6" s="12" t="s">
         <v>13</v>
       </c>
@@ -967,7 +1723,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="26.25" customHeight="1">
+    <row customHeight="1" ht="26.25" r="7" spans="1:7">
       <c r="A7" s="12" t="s">
         <v>14</v>
       </c>
@@ -990,7 +1746,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="24" customHeight="1">
+    <row customHeight="1" ht="24" r="8" spans="1:7">
       <c r="A8" s="12" t="s">
         <v>15</v>
       </c>
@@ -1013,7 +1769,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="21" customHeight="1">
+    <row customHeight="1" ht="21" r="9" spans="1:7">
       <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
@@ -1036,7 +1792,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="24.75" customHeight="1">
+    <row customHeight="1" ht="24.75" r="10" spans="1:7">
       <c r="A10" s="12" t="s">
         <v>17</v>
       </c>
@@ -1059,7 +1815,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="24" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="24" r="11" s="1" spans="1:7">
       <c r="A11" s="12" t="s">
         <v>18</v>
       </c>
@@ -1082,7 +1838,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="27" r="12" s="1" spans="1:7">
       <c r="A12" s="12" t="s">
         <v>19</v>
       </c>
@@ -1105,7 +1861,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="25.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="25.5" r="13" s="1" spans="1:7">
       <c r="A13" s="12" t="s">
         <v>20</v>
       </c>
@@ -1128,7 +1884,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="21.75" customHeight="1">
+    <row customHeight="1" ht="21.75" r="14" spans="1:7">
       <c r="A14" s="14" t="s">
         <v>21</v>
       </c>
@@ -1151,7 +1907,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="22.5" customHeight="1">
+    <row customHeight="1" ht="22.5" r="15" spans="1:7">
       <c r="A15" s="14" t="s">
         <v>22</v>
       </c>
@@ -1174,7 +1930,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="21.75" customHeight="1">
+    <row customHeight="1" ht="21.75" r="16" spans="1:7">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
@@ -1197,7 +1953,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="26.25" customHeight="1">
+    <row customHeight="1" ht="26.25" r="17" spans="1:7">
       <c r="A17" s="14" t="s">
         <v>24</v>
       </c>
@@ -1220,7 +1976,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="24.75" customHeight="1">
+    <row customHeight="1" ht="24.75" r="18" spans="1:7">
       <c r="A18" s="14" t="s">
         <v>25</v>
       </c>
@@ -1243,7 +1999,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="26.25" customHeight="1">
+    <row customHeight="1" ht="26.25" r="19" spans="1:7">
       <c r="A19" s="14" t="s">
         <v>26</v>
       </c>
@@ -1275,24 +2031,24 @@
       </c>
       <c r="B22" s="6"/>
     </row>
-    <row r="23" spans="1:7" ht="87.75" customHeight="1">
+    <row customHeight="1" ht="87.75" r="23" spans="1:7">
       <c r="A23" s="17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30">
+    <row ht="30" r="24" spans="1:7">
       <c r="A24" s="16" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952641D6-CC12-48B1-8144-F6A6F297A8FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952641D6-CC12-48B1-8144-F6A6F297A8FF}">
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -1301,16 +2057,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.5" customHeight="1">
+    <row customHeight="1" ht="25.5" r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1817,31 +2573,34 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7FB6D0-26DB-428F-BE13-EE72EFA5A116}">
-  <dimension ref="A1:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7FB6D0-26DB-428F-BE13-EE72EFA5A116}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="44.25" customHeight="1">
+    <row customHeight="1" ht="44.25" r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1897,7 +2656,7 @@
       <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="25" t="s">
         <v>111</v>
       </c>
       <c r="E3" s="20" t="s">
@@ -2035,7 +2794,7 @@
       <c r="C9" t="s">
         <v>0</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="25" t="s">
         <v>111</v>
       </c>
       <c r="E9" s="20" t="s">
@@ -2154,13 +2913,13 @@
         <v>30</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2278,32 +3037,37 @@
         <v>30</v>
       </c>
     </row>
+    <row r="22" spans="1:7">
+      <c r="D22" s="26" t="s">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E95D631-0A2A-42A6-8C00-D60AAEC6A2A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E95D631-0A2A-42A6-8C00-D60AAEC6A2A9}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.07421875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.57421875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.03125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.66796875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="25.82421875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="29.02734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="44.25" customHeight="1">
+    <row customHeight="1" ht="44.25" r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -2330,108 +3094,361 @@
       <c r="A2" s="19" t="s">
         <v>84</v>
       </c>
+      <c r="B2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="19" t="s">
         <v>85</v>
       </c>
+      <c r="B3" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="19" t="s">
         <v>86</v>
       </c>
+      <c r="B4" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="19" t="s">
         <v>87</v>
       </c>
+      <c r="B5" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="19" t="s">
         <v>88</v>
       </c>
+      <c r="B6" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="19" t="s">
         <v>89</v>
       </c>
+      <c r="B7" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="19" t="s">
         <v>90</v>
       </c>
+      <c r="B8" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="19" t="s">
         <v>91</v>
       </c>
+      <c r="B9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="19" t="s">
         <v>92</v>
       </c>
+      <c r="B10" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="19" t="s">
         <v>93</v>
       </c>
+      <c r="B11" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="19" t="s">
         <v>94</v>
       </c>
+      <c r="B12" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="19" t="s">
         <v>95</v>
       </c>
+      <c r="B13" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="19" t="s">
         <v>96</v>
       </c>
+      <c r="B14" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="19" t="s">
         <v>97</v>
       </c>
+      <c r="B15" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="24" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="24" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="24" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="24" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="24" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="24" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="24" t="s">
         <v>104</v>
       </c>
+      <c r="B22" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" t="s">
+        <v>111</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PayrollProject/OutPutTestResult/HMRC Student Loan Scenarios Test result 201920.xlsx
+++ b/PayrollProject/OutPutTestResult/HMRC Student Loan Scenarios Test result 201920.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\OutPutTestResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{881D9A09-1EA1-4952-89FF-5D79D056CAFF}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4906B07-FF82-4525-8AD4-0B670CB8E785}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="3" firstSheet="2" windowHeight="7275" windowWidth="19095" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="7275" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="PlanAndPGLStudentLoanWeekly" r:id="rId1" sheetId="1"/>
-    <sheet name="PlanAndPGLStudentLoan2Weekly" r:id="rId2" sheetId="2"/>
-    <sheet name="PlanAndPGLStudentLoan4Weekly" r:id="rId3" sheetId="4"/>
-    <sheet name="PlanAndPGLStudentLoanMonthly" r:id="rId4" sheetId="3"/>
+    <sheet name="PlanAndPGLStudentLoanWeekly" sheetId="1" r:id="rId1"/>
+    <sheet name="PlanAndPGLStudentLoan2Weekly" sheetId="2" r:id="rId2"/>
+    <sheet name="PlanAndPGLStudentLoan4Weekly" sheetId="4" r:id="rId3"/>
+    <sheet name="PlanAndPGLStudentLoanMonthly" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179021" calcMode="manual"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="121">
   <si>
     <t>GBP 0.00</t>
   </si>
@@ -392,16 +392,16 @@
   </si>
   <si>
     <t>Major deviation hence FAIL</t>
+  </si>
+  <si>
+    <t>GBP 38.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.0"/>
-  </numFmts>
-  <fonts count="93">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,510 +463,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1000,7 +496,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1008,292 +504,82 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+  <cellXfs count="27">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="2" xfId="0">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="2" xfId="0">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="2" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="2" xfId="0">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="10" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="11" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="12" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="13" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="14" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="15" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="16" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="17" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="18" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="19" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="20" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="21" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="22" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="23" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="24" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="25" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="26" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="27" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="28" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="29" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="30" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="31" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="32" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="33" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="34" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="35" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="36" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="37" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="38" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="39" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="16" fillId="0" fontId="40" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="41" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="42" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="43" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="44" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="45" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="19" fillId="0" fontId="46" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="47" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="20" fillId="0" fontId="48" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="49" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="21" fillId="0" fontId="50" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="51" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="22" fillId="0" fontId="52" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="53" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="23" fillId="0" fontId="54" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="55" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="24" fillId="0" fontId="56" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="57" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="25" fillId="0" fontId="58" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="59" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="26" fillId="0" fontId="60" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="61" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="27" fillId="0" fontId="62" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="63" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="28" fillId="0" fontId="64" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="65" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="29" fillId="0" fontId="66" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="67" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="68" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="69" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="31" fillId="0" fontId="70" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="71" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="32" fillId="0" fontId="72" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="73" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="33" fillId="0" fontId="74" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="75" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="34" fillId="0" fontId="76" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="77" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="35" fillId="0" fontId="78" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="79" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="36" fillId="0" fontId="80" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="81" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="37" fillId="0" fontId="82" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="83" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="38" fillId="0" fontId="84" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="85" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="39" fillId="0" fontId="86" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="87" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="40" fillId="0" fontId="88" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="89" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="41" fillId="0" fontId="90" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="92" fillId="0" borderId="42" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
       <color rgb="FFD9D9D9"/>
@@ -1315,10 +601,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1482,21 +768,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1513,7 +799,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1567,25 +853,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="255.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="1" max="1" width="46" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30.75" r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="30.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1608,7 +897,7 @@
         <v>33</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27.75" r="2" s="1" spans="1:7">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="27.75" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>9</v>
       </c>
@@ -1631,7 +920,7 @@
         <v>30</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="24.75" r="3" s="1" spans="1:7">
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="24.75" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>10</v>
       </c>
@@ -1654,7 +943,7 @@
         <v>30</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="23.25" r="4" s="1" spans="1:7">
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="23.25" customHeight="1">
       <c r="A4" s="12" t="s">
         <v>11</v>
       </c>
@@ -1677,7 +966,7 @@
         <v>30</v>
       </c>
     </row>
-    <row customHeight="1" ht="21" r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="21" customHeight="1">
       <c r="A5" s="12" t="s">
         <v>12</v>
       </c>
@@ -1700,7 +989,7 @@
         <v>30</v>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="24" customHeight="1">
       <c r="A6" s="12" t="s">
         <v>13</v>
       </c>
@@ -1723,7 +1012,7 @@
         <v>30</v>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="26.25" customHeight="1">
       <c r="A7" s="12" t="s">
         <v>14</v>
       </c>
@@ -1746,7 +1035,7 @@
         <v>30</v>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="24" customHeight="1">
       <c r="A8" s="12" t="s">
         <v>15</v>
       </c>
@@ -1769,7 +1058,7 @@
         <v>30</v>
       </c>
     </row>
-    <row customHeight="1" ht="21" r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="21" customHeight="1">
       <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
@@ -1792,7 +1081,7 @@
         <v>30</v>
       </c>
     </row>
-    <row customHeight="1" ht="24.75" r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="24.75" customHeight="1">
       <c r="A10" s="12" t="s">
         <v>17</v>
       </c>
@@ -1815,7 +1104,7 @@
         <v>30</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="11" s="1" spans="1:7">
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="24" customHeight="1">
       <c r="A11" s="12" t="s">
         <v>18</v>
       </c>
@@ -1838,7 +1127,7 @@
         <v>30</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27" r="12" s="1" spans="1:7">
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A12" s="12" t="s">
         <v>19</v>
       </c>
@@ -1861,7 +1150,7 @@
         <v>30</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="25.5" r="13" s="1" spans="1:7">
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="25.5" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>20</v>
       </c>
@@ -1884,7 +1173,7 @@
         <v>30</v>
       </c>
     </row>
-    <row customHeight="1" ht="21.75" r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="21.75" customHeight="1">
       <c r="A14" s="14" t="s">
         <v>21</v>
       </c>
@@ -1907,7 +1196,7 @@
         <v>30</v>
       </c>
     </row>
-    <row customHeight="1" ht="22.5" r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="22.5" customHeight="1">
       <c r="A15" s="14" t="s">
         <v>22</v>
       </c>
@@ -1930,7 +1219,7 @@
         <v>30</v>
       </c>
     </row>
-    <row customHeight="1" ht="21.75" r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="21.75" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
@@ -1953,7 +1242,7 @@
         <v>30</v>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="26.25" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>24</v>
       </c>
@@ -1976,7 +1265,7 @@
         <v>30</v>
       </c>
     </row>
-    <row customHeight="1" ht="24.75" r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="24.75" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>25</v>
       </c>
@@ -1999,7 +1288,7 @@
         <v>30</v>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="26.25" customHeight="1">
       <c r="A19" s="14" t="s">
         <v>26</v>
       </c>
@@ -2031,42 +1320,45 @@
       </c>
       <c r="B22" s="6"/>
     </row>
-    <row customHeight="1" ht="87.75" r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="87.75" customHeight="1">
       <c r="A23" s="17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row ht="30" r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="30">
       <c r="A24" s="16" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952641D6-CC12-48B1-8144-F6A6F297A8FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952641D6-CC12-48B1-8144-F6A6F297A8FF}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="25.5" r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="25.5" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -2573,34 +1865,34 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7FB6D0-26DB-428F-BE13-EE72EFA5A116}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7FB6D0-26DB-428F-BE13-EE72EFA5A116}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="44.25" r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="44.25" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -3043,31 +2335,34 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E95D631-0A2A-42A6-8C00-D60AAEC6A2A9}">
-  <dimension ref="A1:G22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E95D631-0A2A-42A6-8C00-D60AAEC6A2A9}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.07421875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.57421875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.03125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.66796875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="25.82421875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="29.02734375" collapsed="true"/>
+    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="44.25" r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="44.25" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -3097,14 +2392,20 @@
       <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
       <c r="G2" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3114,14 +2415,20 @@
       <c r="B3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="25" t="s">
         <v>111</v>
       </c>
       <c r="E3" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
       <c r="G3" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3131,14 +2438,20 @@
       <c r="B4" s="20" t="s">
         <v>112</v>
       </c>
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
       <c r="G4" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3148,14 +2461,20 @@
       <c r="B5" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>111</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
       <c r="G5" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3165,14 +2484,20 @@
       <c r="B6" s="20" t="s">
         <v>114</v>
       </c>
+      <c r="C6" t="s">
+        <v>114</v>
+      </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="F6" t="s">
+        <v>0</v>
+      </c>
       <c r="G6" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3182,14 +2507,20 @@
       <c r="B7" s="20" t="s">
         <v>115</v>
       </c>
+      <c r="C7" t="s">
+        <v>115</v>
+      </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="F7" t="s">
+        <v>0</v>
+      </c>
       <c r="G7" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3199,14 +2530,20 @@
       <c r="B8" s="20" t="s">
         <v>116</v>
       </c>
+      <c r="C8" t="s">
+        <v>116</v>
+      </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="F8" t="s">
+        <v>0</v>
+      </c>
       <c r="G8" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3216,14 +2553,20 @@
       <c r="B9" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
       <c r="G9" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3233,14 +2576,20 @@
       <c r="B10" s="21" t="s">
         <v>1</v>
       </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="F10" t="s">
+        <v>0</v>
+      </c>
       <c r="G10" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3250,14 +2599,20 @@
       <c r="B11" s="21" t="s">
         <v>1</v>
       </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="F11" t="s">
+        <v>0</v>
+      </c>
       <c r="G11" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3267,14 +2622,20 @@
       <c r="B12" s="21" t="s">
         <v>58</v>
       </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
       <c r="D12" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="F12" t="s">
+        <v>0</v>
+      </c>
       <c r="G12" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3284,14 +2645,20 @@
       <c r="B13" s="21" t="s">
         <v>117</v>
       </c>
+      <c r="C13" t="s">
+        <v>117</v>
+      </c>
       <c r="D13" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="F13" t="s">
+        <v>0</v>
+      </c>
       <c r="G13" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3301,14 +2668,20 @@
       <c r="B14" s="21" t="s">
         <v>115</v>
       </c>
+      <c r="C14" t="s">
+        <v>115</v>
+      </c>
       <c r="D14" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="F14" t="s">
+        <v>0</v>
+      </c>
       <c r="G14" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3318,14 +2691,20 @@
       <c r="B15" s="21" t="s">
         <v>118</v>
       </c>
+      <c r="C15" t="s">
+        <v>118</v>
+      </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="F15" t="s">
+        <v>0</v>
+      </c>
       <c r="G15" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3335,120 +2714,167 @@
       <c r="B16" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
       <c r="D16" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="F16" t="s">
+        <v>0</v>
+      </c>
       <c r="G16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="24" t="s">
         <v>99</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>1</v>
       </c>
+      <c r="F17" t="s">
+        <v>1</v>
+      </c>
       <c r="G17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="24" t="s">
         <v>100</v>
       </c>
       <c r="B18" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
       <c r="D18" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>1</v>
       </c>
+      <c r="F18" t="s">
+        <v>1</v>
+      </c>
       <c r="G18" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="24" t="s">
         <v>101</v>
       </c>
       <c r="B19" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
       <c r="D19" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>58</v>
       </c>
+      <c r="F19" t="s">
+        <v>58</v>
+      </c>
       <c r="G19" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="24" t="s">
         <v>102</v>
       </c>
       <c r="B20" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
       <c r="D20" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>117</v>
       </c>
+      <c r="F20" t="s">
+        <v>117</v>
+      </c>
       <c r="G20" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="24" t="s">
         <v>103</v>
       </c>
       <c r="B21" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
       <c r="D21" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>115</v>
       </c>
+      <c r="F21" t="s">
+        <v>115</v>
+      </c>
       <c r="G21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="24" t="s">
         <v>104</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
       <c r="D22" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="E22" s="21" t="s">
         <v>118</v>
       </c>
+      <c r="F22" t="s">
+        <v>118</v>
+      </c>
       <c r="G22" t="s">
-        <v>111</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="D25" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PayrollProject/OutPutTestResult/HMRC Student Loan Scenarios Test result 201920.xlsx
+++ b/PayrollProject/OutPutTestResult/HMRC Student Loan Scenarios Test result 201920.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\OutPutTestResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4906B07-FF82-4525-8AD4-0B670CB8E785}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{A4906B07-FF82-4525-8AD4-0B670CB8E785}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="7275" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" firstSheet="2" windowHeight="7275" windowWidth="19095" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PlanAndPGLStudentLoanWeekly" sheetId="1" r:id="rId1"/>
-    <sheet name="PlanAndPGLStudentLoan2Weekly" sheetId="2" r:id="rId2"/>
-    <sheet name="PlanAndPGLStudentLoan4Weekly" sheetId="4" r:id="rId3"/>
-    <sheet name="PlanAndPGLStudentLoanMonthly" sheetId="3" r:id="rId4"/>
+    <sheet name="PlanAndPGLStudentLoanWeekly" r:id="rId1" sheetId="1"/>
+    <sheet name="PlanAndPGLStudentLoan2Weekly" r:id="rId2" sheetId="2"/>
+    <sheet name="PlanAndPGLStudentLoan4Weekly" r:id="rId3" sheetId="4"/>
+    <sheet name="PlanAndPGLStudentLoanMonthly" r:id="rId4" sheetId="3"/>
   </sheets>
   <calcPr calcId="179021" calcMode="manual"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="121">
   <si>
     <t>GBP 0.00</t>
   </si>
@@ -401,7 +401,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
+  <fonts count="117">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,6 +465,654 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="6">
@@ -496,7 +1147,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -504,82 +1155,352 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+  <cellXfs count="135">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="2" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="2" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="2" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="2" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="10" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="11" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="12" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="13" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="14" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="15" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="16" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="17" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="18" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="19" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="20" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="21" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="22" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="23" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="24" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="25" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="26" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="27" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="28" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="29" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="30" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="31" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="32" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="33" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="34" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="35" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="36" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="37" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="38" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="39" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="16" fillId="0" fontId="40" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="41" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="42" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="43" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="44" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="45" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="19" fillId="0" fontId="46" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="47" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="20" fillId="0" fontId="48" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="49" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="21" fillId="0" fontId="50" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="51" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="22" fillId="0" fontId="52" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="53" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="23" fillId="0" fontId="54" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="55" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="24" fillId="0" fontId="56" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="57" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="25" fillId="0" fontId="58" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="59" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="26" fillId="0" fontId="60" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="61" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="27" fillId="0" fontId="62" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="63" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="28" fillId="0" fontId="64" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="65" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="29" fillId="0" fontId="66" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="67" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="68" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="69" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="31" fillId="0" fontId="70" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="71" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="32" fillId="0" fontId="72" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="73" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="33" fillId="0" fontId="74" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="75" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="34" fillId="0" fontId="76" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="77" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="35" fillId="0" fontId="78" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="79" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="36" fillId="0" fontId="80" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="81" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="37" fillId="0" fontId="82" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="83" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="38" fillId="0" fontId="84" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="85" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="39" fillId="0" fontId="86" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="87" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="40" fillId="0" fontId="88" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="89" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="41" fillId="0" fontId="90" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="91" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="42" fillId="0" fontId="92" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="93" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="43" fillId="0" fontId="94" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="95" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="44" fillId="0" fontId="96" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="97" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="45" fillId="0" fontId="98" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="99" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="46" fillId="0" fontId="100" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="101" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="47" fillId="0" fontId="102" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="103" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="48" fillId="0" fontId="104" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="105" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="49" fillId="0" fontId="106" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="107" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="50" fillId="0" fontId="108" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="109" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="51" fillId="0" fontId="110" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="111" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="52" fillId="0" fontId="112" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="113" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="53" fillId="0" fontId="114" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="116" fillId="0" borderId="54" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <mruColors>
       <color rgb="FFD9D9D9"/>
@@ -601,10 +1522,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -768,21 +1689,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -799,7 +1720,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -853,28 +1774,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="46" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="255.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.57421875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.03125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.66796875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="25.82421875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="29.02734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" customHeight="1">
+    <row customHeight="1" ht="30.75" r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -897,7 +1818,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="27.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="27.75" r="2" s="1" spans="1:7">
       <c r="A2" s="12" t="s">
         <v>9</v>
       </c>
@@ -920,7 +1841,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="24.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="24.75" r="3" s="1" spans="1:7">
       <c r="A3" s="12" t="s">
         <v>10</v>
       </c>
@@ -943,7 +1864,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="23.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="23.25" r="4" s="1" spans="1:7">
       <c r="A4" s="12" t="s">
         <v>11</v>
       </c>
@@ -966,7 +1887,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="21" customHeight="1">
+    <row customHeight="1" ht="21" r="5" spans="1:7">
       <c r="A5" s="12" t="s">
         <v>12</v>
       </c>
@@ -989,7 +1910,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="24" customHeight="1">
+    <row customHeight="1" ht="24" r="6" spans="1:7">
       <c r="A6" s="12" t="s">
         <v>13</v>
       </c>
@@ -1012,7 +1933,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="26.25" customHeight="1">
+    <row customHeight="1" ht="26.25" r="7" spans="1:7">
       <c r="A7" s="12" t="s">
         <v>14</v>
       </c>
@@ -1035,7 +1956,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="24" customHeight="1">
+    <row customHeight="1" ht="24" r="8" spans="1:7">
       <c r="A8" s="12" t="s">
         <v>15</v>
       </c>
@@ -1058,7 +1979,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="21" customHeight="1">
+    <row customHeight="1" ht="21" r="9" spans="1:7">
       <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
@@ -1081,7 +2002,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="24.75" customHeight="1">
+    <row customHeight="1" ht="24.75" r="10" spans="1:7">
       <c r="A10" s="12" t="s">
         <v>17</v>
       </c>
@@ -1104,7 +2025,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="24" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="24" r="11" s="1" spans="1:7">
       <c r="A11" s="12" t="s">
         <v>18</v>
       </c>
@@ -1127,7 +2048,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="27" r="12" s="1" spans="1:7">
       <c r="A12" s="12" t="s">
         <v>19</v>
       </c>
@@ -1150,7 +2071,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="25.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="25.5" r="13" s="1" spans="1:7">
       <c r="A13" s="12" t="s">
         <v>20</v>
       </c>
@@ -1173,7 +2094,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="21.75" customHeight="1">
+    <row customHeight="1" ht="21.75" r="14" spans="1:7">
       <c r="A14" s="14" t="s">
         <v>21</v>
       </c>
@@ -1196,7 +2117,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="22.5" customHeight="1">
+    <row customHeight="1" ht="22.5" r="15" spans="1:7">
       <c r="A15" s="14" t="s">
         <v>22</v>
       </c>
@@ -1219,7 +2140,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="21.75" customHeight="1">
+    <row customHeight="1" ht="21.75" r="16" spans="1:7">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
@@ -1242,7 +2163,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="26.25" customHeight="1">
+    <row customHeight="1" ht="26.25" r="17" spans="1:7">
       <c r="A17" s="14" t="s">
         <v>24</v>
       </c>
@@ -1265,7 +2186,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="24.75" customHeight="1">
+    <row customHeight="1" ht="24.75" r="18" spans="1:7">
       <c r="A18" s="14" t="s">
         <v>25</v>
       </c>
@@ -1288,7 +2209,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="26.25" customHeight="1">
+    <row customHeight="1" ht="26.25" r="19" spans="1:7">
       <c r="A19" s="14" t="s">
         <v>26</v>
       </c>
@@ -1320,24 +2241,24 @@
       </c>
       <c r="B22" s="6"/>
     </row>
-    <row r="23" spans="1:7" ht="87.75" customHeight="1">
+    <row customHeight="1" ht="87.75" r="23" spans="1:7">
       <c r="A23" s="17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30">
+    <row ht="30" r="24" spans="1:7">
       <c r="A24" s="16" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952641D6-CC12-48B1-8144-F6A6F297A8FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952641D6-CC12-48B1-8144-F6A6F297A8FF}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -1349,16 +2270,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.5" customHeight="1">
+    <row customHeight="1" ht="25.5" r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1865,13 +2786,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7FB6D0-26DB-428F-BE13-EE72EFA5A116}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7FB6D0-26DB-428F-BE13-EE72EFA5A116}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -1883,16 +2804,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="44.25" customHeight="1">
+    <row customHeight="1" ht="44.25" r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -2335,13 +3256,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E95D631-0A2A-42A6-8C00-D60AAEC6A2A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E95D631-0A2A-42A6-8C00-D60AAEC6A2A9}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2353,16 +3274,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="44.25" customHeight="1">
+    <row customHeight="1" ht="44.25" r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -2874,7 +3795,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PayrollProject/OutPutTestResult/HMRC Student Loan Scenarios Test result 201920.xlsx
+++ b/PayrollProject/OutPutTestResult/HMRC Student Loan Scenarios Test result 201920.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\OutPutTestResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{A4906B07-FF82-4525-8AD4-0B670CB8E785}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAABFD72-F562-4A6F-9A39-58DDB6D665B0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="2" windowHeight="7275" windowWidth="19095" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="630" windowWidth="19095" windowHeight="7275" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="PlanAndPGLStudentLoanWeekly" r:id="rId1" sheetId="1"/>
-    <sheet name="PlanAndPGLStudentLoan2Weekly" r:id="rId2" sheetId="2"/>
-    <sheet name="PlanAndPGLStudentLoan4Weekly" r:id="rId3" sheetId="4"/>
-    <sheet name="PlanAndPGLStudentLoanMonthly" r:id="rId4" sheetId="3"/>
+    <sheet name="PlanAndPGLStudentLoanWeekly" sheetId="1" r:id="rId1"/>
+    <sheet name="PlanAndPGLStudentLoan2Weekly" sheetId="2" r:id="rId2"/>
+    <sheet name="PlanAndPGLStudentLoan4Weekly" sheetId="4" r:id="rId3"/>
+    <sheet name="PlanAndPGLStudentLoanMonthly" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179021" calcMode="manual"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="121">
   <si>
     <t>GBP 0.00</t>
   </si>
@@ -401,10 +401,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.0"/>
-  </numFmts>
-  <fonts count="117">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,654 +463,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1147,7 +496,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="55">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1155,352 +504,82 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+  <cellXfs count="27">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="2" xfId="0">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="2" xfId="0">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="2" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="2" xfId="0">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="10" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="11" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="12" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="13" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="14" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="15" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="16" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="17" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="18" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="19" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="20" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="21" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="22" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="23" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="24" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="25" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="26" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="27" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="28" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="29" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="30" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="31" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="32" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="33" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="34" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="35" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="36" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="37" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="38" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="39" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="16" fillId="0" fontId="40" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="41" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="42" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="43" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="44" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="45" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="19" fillId="0" fontId="46" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="47" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="20" fillId="0" fontId="48" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="49" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="21" fillId="0" fontId="50" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="51" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="22" fillId="0" fontId="52" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="53" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="23" fillId="0" fontId="54" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="55" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="24" fillId="0" fontId="56" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="57" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="25" fillId="0" fontId="58" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="59" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="26" fillId="0" fontId="60" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="61" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="27" fillId="0" fontId="62" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="63" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="28" fillId="0" fontId="64" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="65" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="29" fillId="0" fontId="66" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="67" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="68" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="69" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="31" fillId="0" fontId="70" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="71" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="32" fillId="0" fontId="72" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="73" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="33" fillId="0" fontId="74" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="75" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="34" fillId="0" fontId="76" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="77" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="35" fillId="0" fontId="78" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="79" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="36" fillId="0" fontId="80" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="81" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="37" fillId="0" fontId="82" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="83" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="38" fillId="0" fontId="84" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="85" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="39" fillId="0" fontId="86" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="87" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="40" fillId="0" fontId="88" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="89" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="41" fillId="0" fontId="90" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="91" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="42" fillId="0" fontId="92" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="93" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="43" fillId="0" fontId="94" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="95" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="44" fillId="0" fontId="96" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="97" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="45" fillId="0" fontId="98" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="99" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="46" fillId="0" fontId="100" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="101" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="47" fillId="0" fontId="102" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="103" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="48" fillId="0" fontId="104" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="105" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="49" fillId="0" fontId="106" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="107" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="50" fillId="0" fontId="108" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="109" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="51" fillId="0" fontId="110" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="111" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="52" fillId="0" fontId="112" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="113" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="53" fillId="0" fontId="114" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="116" fillId="0" borderId="54" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
       <color rgb="FFD9D9D9"/>
@@ -1522,10 +601,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1689,21 +768,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1720,7 +799,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1774,28 +853,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="255.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.57421875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.03125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.66796875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="25.82421875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="29.02734375" collapsed="true"/>
+    <col min="1" max="1" width="45.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30.75" r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="30.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1818,7 +897,7 @@
         <v>33</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27.75" r="2" s="1" spans="1:7">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="27.75" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>9</v>
       </c>
@@ -1841,7 +920,7 @@
         <v>30</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="24.75" r="3" s="1" spans="1:7">
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="24.75" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>10</v>
       </c>
@@ -1864,7 +943,7 @@
         <v>30</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="23.25" r="4" s="1" spans="1:7">
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="23.25" customHeight="1">
       <c r="A4" s="12" t="s">
         <v>11</v>
       </c>
@@ -1887,7 +966,7 @@
         <v>30</v>
       </c>
     </row>
-    <row customHeight="1" ht="21" r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="21" customHeight="1">
       <c r="A5" s="12" t="s">
         <v>12</v>
       </c>
@@ -1910,7 +989,7 @@
         <v>30</v>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="24" customHeight="1">
       <c r="A6" s="12" t="s">
         <v>13</v>
       </c>
@@ -1933,7 +1012,7 @@
         <v>30</v>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="26.25" customHeight="1">
       <c r="A7" s="12" t="s">
         <v>14</v>
       </c>
@@ -1956,7 +1035,7 @@
         <v>30</v>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="24" customHeight="1">
       <c r="A8" s="12" t="s">
         <v>15</v>
       </c>
@@ -1979,7 +1058,7 @@
         <v>30</v>
       </c>
     </row>
-    <row customHeight="1" ht="21" r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="21" customHeight="1">
       <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
@@ -2002,7 +1081,7 @@
         <v>30</v>
       </c>
     </row>
-    <row customHeight="1" ht="24.75" r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="24.75" customHeight="1">
       <c r="A10" s="12" t="s">
         <v>17</v>
       </c>
@@ -2025,7 +1104,7 @@
         <v>30</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="11" s="1" spans="1:7">
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="24" customHeight="1">
       <c r="A11" s="12" t="s">
         <v>18</v>
       </c>
@@ -2048,7 +1127,7 @@
         <v>30</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27" r="12" s="1" spans="1:7">
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A12" s="12" t="s">
         <v>19</v>
       </c>
@@ -2071,7 +1150,7 @@
         <v>30</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="25.5" r="13" s="1" spans="1:7">
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="25.5" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>20</v>
       </c>
@@ -2094,7 +1173,7 @@
         <v>30</v>
       </c>
     </row>
-    <row customHeight="1" ht="21.75" r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="21.75" customHeight="1">
       <c r="A14" s="14" t="s">
         <v>21</v>
       </c>
@@ -2117,7 +1196,7 @@
         <v>30</v>
       </c>
     </row>
-    <row customHeight="1" ht="22.5" r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="22.5" customHeight="1">
       <c r="A15" s="14" t="s">
         <v>22</v>
       </c>
@@ -2140,7 +1219,7 @@
         <v>30</v>
       </c>
     </row>
-    <row customHeight="1" ht="21.75" r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="21.75" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
@@ -2163,7 +1242,7 @@
         <v>30</v>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="26.25" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>24</v>
       </c>
@@ -2186,7 +1265,7 @@
         <v>30</v>
       </c>
     </row>
-    <row customHeight="1" ht="24.75" r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="24.75" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>25</v>
       </c>
@@ -2209,7 +1288,7 @@
         <v>30</v>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="26.25" customHeight="1">
       <c r="A19" s="14" t="s">
         <v>26</v>
       </c>
@@ -2241,24 +1320,24 @@
       </c>
       <c r="B22" s="6"/>
     </row>
-    <row customHeight="1" ht="87.75" r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="87.75" customHeight="1">
       <c r="A23" s="17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row ht="30" r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="30">
       <c r="A24" s="16" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952641D6-CC12-48B1-8144-F6A6F297A8FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952641D6-CC12-48B1-8144-F6A6F297A8FF}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -2270,16 +1349,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="25.5" r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="25.5" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -2786,34 +1865,34 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7FB6D0-26DB-428F-BE13-EE72EFA5A116}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7FB6D0-26DB-428F-BE13-EE72EFA5A116}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="1" max="1" width="45.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="44.25" r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="44.25" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -3256,13 +2335,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E95D631-0A2A-42A6-8C00-D60AAEC6A2A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E95D631-0A2A-42A6-8C00-D60AAEC6A2A9}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3274,16 +2353,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="44.25" r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="44.25" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -3795,7 +2874,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PayrollProject/OutPutTestResult/HMRC Student Loan Scenarios Test result 201920.xlsx
+++ b/PayrollProject/OutPutTestResult/HMRC Student Loan Scenarios Test result 201920.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\OutPutTestResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAABFD72-F562-4A6F-9A39-58DDB6D665B0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{54B56A51-FA3E-493A-B81B-BD017571838C}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="630" windowWidth="19095" windowHeight="7275" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="3" firstSheet="2" windowHeight="7275" windowWidth="19095" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="1260"/>
   </bookViews>
   <sheets>
-    <sheet name="PlanAndPGLStudentLoanWeekly" sheetId="1" r:id="rId1"/>
-    <sheet name="PlanAndPGLStudentLoan2Weekly" sheetId="2" r:id="rId2"/>
-    <sheet name="PlanAndPGLStudentLoan4Weekly" sheetId="4" r:id="rId3"/>
-    <sheet name="PlanAndPGLStudentLoanMonthly" sheetId="3" r:id="rId4"/>
+    <sheet name="PlanAndPGLStudentLoanWeekly" r:id="rId1" sheetId="1"/>
+    <sheet name="PlanAndPGLStudentLoan2Weekly" r:id="rId2" sheetId="2"/>
+    <sheet name="PlanAndPGLStudentLoan4Weekly" r:id="rId3" sheetId="4"/>
+    <sheet name="PlanAndPGLStudentLoanMonthly" r:id="rId4" sheetId="3"/>
   </sheets>
   <calcPr calcId="179021" calcMode="manual"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="131">
   <si>
     <t>GBP 0.00</t>
   </si>
@@ -394,14 +394,47 @@
     <t>Major deviation hence FAIL</t>
   </si>
   <si>
+    <t>GBP 49.00</t>
+  </si>
+  <si>
+    <t>GBP 54.00</t>
+  </si>
+  <si>
+    <t>GBP 58.00</t>
+  </si>
+  <si>
+    <t>GBP 286.00</t>
+  </si>
+  <si>
+    <t>GBP 425.00</t>
+  </si>
+  <si>
     <t>GBP 38.00</t>
+  </si>
+  <si>
+    <t>GBP 105.00</t>
+  </si>
+  <si>
+    <t>GBP 109.00</t>
+  </si>
+  <si>
+    <t>GBP 150.00</t>
+  </si>
+  <si>
+    <t>GBP 347.00</t>
+  </si>
+  <si>
+    <t>GBP 676.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
+  <fonts count="135">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,6 +495,762 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="6">
@@ -496,7 +1285,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="64">
     <border>
       <left/>
       <right/>
@@ -504,82 +1293,397 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+  <cellXfs count="153">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="2" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="2" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="2" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="2" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="10" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="11" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="12" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="13" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="14" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="15" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="16" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="17" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="18" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="19" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="20" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="21" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="22" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="23" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="24" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="25" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="26" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="27" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="28" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="29" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="30" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="31" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="32" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="33" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="34" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="35" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="36" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="37" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="38" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="39" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="16" fillId="0" fontId="40" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="41" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="42" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="43" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="44" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="45" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="19" fillId="0" fontId="46" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="47" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="20" fillId="0" fontId="48" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="49" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="21" fillId="0" fontId="50" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="51" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="22" fillId="0" fontId="52" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="53" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="23" fillId="0" fontId="54" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="55" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="24" fillId="0" fontId="56" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="57" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="25" fillId="0" fontId="58" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="59" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="26" fillId="0" fontId="60" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="61" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="27" fillId="0" fontId="62" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="63" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="28" fillId="0" fontId="64" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="65" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="29" fillId="0" fontId="66" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="67" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="68" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="69" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="31" fillId="0" fontId="70" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="71" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="32" fillId="0" fontId="72" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="73" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="33" fillId="0" fontId="74" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="75" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="34" fillId="0" fontId="76" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="77" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="35" fillId="0" fontId="78" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="79" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="36" fillId="0" fontId="80" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="81" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="37" fillId="0" fontId="82" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="83" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="38" fillId="0" fontId="84" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="85" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="39" fillId="0" fontId="86" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="87" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="40" fillId="0" fontId="88" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="89" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="41" fillId="0" fontId="90" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="91" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="42" fillId="0" fontId="92" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="93" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="43" fillId="0" fontId="94" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="95" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="44" fillId="0" fontId="96" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="97" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="45" fillId="0" fontId="98" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="99" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="46" fillId="0" fontId="100" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="101" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="47" fillId="0" fontId="102" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="103" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="48" fillId="0" fontId="104" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="105" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="49" fillId="0" fontId="106" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="107" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="50" fillId="0" fontId="108" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="109" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="51" fillId="0" fontId="110" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="111" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="52" fillId="0" fontId="112" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="113" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="53" fillId="0" fontId="114" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="115" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="116" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="117" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="55" fillId="0" fontId="118" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="119" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="56" fillId="0" fontId="120" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="121" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="57" fillId="0" fontId="122" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="123" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="58" fillId="0" fontId="124" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="125" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="59" fillId="0" fontId="126" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="127" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="60" fillId="0" fontId="128" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="129" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="61" fillId="0" fontId="130" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="131" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="62" fillId="0" fontId="132" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="134" fillId="0" borderId="63" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <mruColors>
       <color rgb="FFD9D9D9"/>
@@ -601,10 +1705,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -768,21 +1872,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -799,7 +1903,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -853,28 +1957,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="45.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="255.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" customHeight="1">
+    <row customHeight="1" ht="30.75" r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -897,419 +2001,275 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="27.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="27.75" r="2" s="1" spans="1:7">
       <c r="A2" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="24.75" customHeight="1">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="24.75" r="3" s="1" spans="1:7">
       <c r="A3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="23.25" customHeight="1">
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="23.25" r="4" s="1" spans="1:7">
       <c r="A4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="21" customHeight="1">
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row customHeight="1" ht="21" r="5" spans="1:7">
       <c r="A5" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>30</v>
-      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="24" customHeight="1">
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row customHeight="1" ht="24" r="6" spans="1:7">
       <c r="A6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>30</v>
-      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="26.25" customHeight="1">
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row customHeight="1" ht="26.25" r="7" spans="1:7">
       <c r="A7" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>30</v>
-      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="24" customHeight="1">
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row customHeight="1" ht="24" r="8" spans="1:7">
       <c r="A8" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>30</v>
-      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="21" customHeight="1">
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row customHeight="1" ht="21" r="9" spans="1:7">
       <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>30</v>
-      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="24.75" customHeight="1">
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row customHeight="1" ht="24.75" r="10" spans="1:7">
       <c r="A10" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>30</v>
-      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="24" customHeight="1">
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="24" r="11" s="1" spans="1:7">
       <c r="A11" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1">
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="27" r="12" s="1" spans="1:7">
       <c r="A12" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="25.5" customHeight="1">
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="25.5" r="13" s="1" spans="1:7">
       <c r="A13" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="21.75" customHeight="1">
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row customHeight="1" ht="21.75" r="14" spans="1:7">
       <c r="A14" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="22.5" customHeight="1">
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row customHeight="1" ht="22.5" r="15" spans="1:7">
       <c r="A15" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="21.75" customHeight="1">
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row customHeight="1" ht="21.75" r="16" spans="1:7">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
       <c r="E16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="26.25" customHeight="1">
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row customHeight="1" ht="26.25" r="17" spans="1:7">
       <c r="A17" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="24.75" customHeight="1">
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row customHeight="1" ht="24.75" r="18" spans="1:7">
       <c r="A18" s="14" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
       <c r="E18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="26.25" customHeight="1">
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row customHeight="1" ht="26.25" r="19" spans="1:7">
       <c r="A19" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
       <c r="E19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
     </row>
     <row r="21" spans="1:7">
       <c r="G21" s="15"/>
@@ -1320,24 +2280,24 @@
       </c>
       <c r="B22" s="6"/>
     </row>
-    <row r="23" spans="1:7" ht="87.75" customHeight="1">
+    <row customHeight="1" ht="87.75" r="23" spans="1:7">
       <c r="A23" s="17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30">
+    <row ht="30" r="24" spans="1:7">
       <c r="A24" s="16" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952641D6-CC12-48B1-8144-F6A6F297A8FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952641D6-CC12-48B1-8144-F6A6F297A8FF}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -1349,16 +2309,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.5" customHeight="1">
+    <row customHeight="1" ht="25.5" r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1720,10 +2680,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1743,10 +2703,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1766,10 +2726,10 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1789,10 +2749,10 @@
         <v>59</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1812,10 +2772,10 @@
         <v>63</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1835,10 +2795,10 @@
         <v>64</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1858,41 +2818,41 @@
         <v>65</v>
       </c>
       <c r="F22" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7FB6D0-26DB-428F-BE13-EE72EFA5A116}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7FB6D0-26DB-428F-BE13-EE72EFA5A116}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="45.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="44.25" customHeight="1">
+    <row customHeight="1" ht="44.25" r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1922,20 +2882,8 @@
       <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
       <c r="E2" s="20" t="s">
         <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1945,20 +2893,9 @@
       <c r="B3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>111</v>
-      </c>
+      <c r="D3" s="25"/>
       <c r="E3" s="20" t="s">
         <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1968,20 +2905,8 @@
       <c r="B4" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="C4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
       <c r="E4" s="20" t="s">
         <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1991,20 +2916,8 @@
       <c r="B5" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="C5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
       <c r="E5" s="20" t="s">
         <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2014,20 +2927,8 @@
       <c r="B6" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="C6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
       <c r="E6" s="20" t="s">
         <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2037,20 +2938,8 @@
       <c r="B7" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
       <c r="E7" s="20" t="s">
         <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2060,20 +2949,8 @@
       <c r="B8" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
       <c r="E8" s="20" t="s">
         <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2083,20 +2960,9 @@
       <c r="B9" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>111</v>
-      </c>
+      <c r="D9" s="25"/>
       <c r="E9" s="20" t="s">
         <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2106,20 +2972,8 @@
       <c r="B10" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
       <c r="E10" s="20" t="s">
         <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2129,20 +2983,8 @@
       <c r="B11" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
       <c r="E11" s="20" t="s">
         <v>0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2152,20 +2994,8 @@
       <c r="B12" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="C12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
       <c r="E12" s="20" t="s">
         <v>0</v>
-      </c>
-      <c r="F12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2175,20 +3005,8 @@
       <c r="B13" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="C13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
       <c r="E13" s="20" t="s">
         <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2198,20 +3016,8 @@
       <c r="B14" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
       <c r="E14" s="21" t="s">
         <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2221,20 +3027,8 @@
       <c r="B15" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
-      </c>
       <c r="E15" s="21" t="s">
         <v>1</v>
-      </c>
-      <c r="F15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2244,125 +3038,75 @@
       <c r="B16" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>30</v>
-      </c>
       <c r="E16" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="23" t="s">
         <v>81</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>30</v>
-      </c>
       <c r="E17" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="23" t="s">
         <v>82</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>30</v>
-      </c>
       <c r="E18" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F18" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="23" t="s">
         <v>83</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>30</v>
-      </c>
       <c r="E19" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="F19" t="s">
-        <v>110</v>
-      </c>
-      <c r="G19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="D22" s="26" t="s">
-        <v>119</v>
-      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="D22" s="26"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E95D631-0A2A-42A6-8C00-D60AAEC6A2A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E95D631-0A2A-42A6-8C00-D60AAEC6A2A9}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.07421875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.57421875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.03125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.66796875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="25.82421875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="29.02734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="44.25" customHeight="1">
+    <row customHeight="1" ht="44.25" r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -2462,7 +3206,7 @@
         <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>111</v>
@@ -2724,13 +3468,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="24" t="s">
         <v>99</v>
       </c>
@@ -2747,13 +3491,13 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="24" t="s">
         <v>100</v>
       </c>
@@ -2770,13 +3514,13 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="24" t="s">
         <v>101</v>
       </c>
@@ -2793,13 +3537,13 @@
         <v>58</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="24" t="s">
         <v>102</v>
       </c>
@@ -2816,13 +3560,13 @@
         <v>117</v>
       </c>
       <c r="F20" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="24" t="s">
         <v>103</v>
       </c>
@@ -2839,13 +3583,13 @@
         <v>115</v>
       </c>
       <c r="F21" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="24" t="s">
         <v>104</v>
       </c>
@@ -2862,19 +3606,19 @@
         <v>118</v>
       </c>
       <c r="F22" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="D25" t="s">
         <v>119</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PayrollProject/OutPutTestResult/HMRC Student Loan Scenarios Test result 201920.xlsx
+++ b/PayrollProject/OutPutTestResult/HMRC Student Loan Scenarios Test result 201920.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\OutPutTestResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{54B56A51-FA3E-493A-B81B-BD017571838C}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37"/>
+  <xr:revisionPtr documentId="13_ncr:1_{95BD4C04-F102-4E3B-81B0-56D4A89226AC}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37"/>
   <bookViews>
-    <workbookView activeTab="3" firstSheet="2" windowHeight="7275" windowWidth="19095" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="1260"/>
+    <workbookView activeTab="3" windowHeight="7275" windowWidth="19095" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="2520"/>
   </bookViews>
   <sheets>
     <sheet name="PlanAndPGLStudentLoanWeekly" r:id="rId1" sheetId="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="139">
   <si>
     <t>GBP 0.00</t>
   </si>
@@ -120,9 +120,6 @@
   </si>
   <si>
     <t>GBP 143.00</t>
-  </si>
-  <si>
-    <t>TRUE</t>
   </si>
   <si>
     <t>ExpectedPostGraduateLoan</t>
@@ -367,52 +364,79 @@
     <t>GBP 574.00</t>
   </si>
   <si>
+    <t>GBP 31.00</t>
+  </si>
+  <si>
+    <t>GBP 39.00</t>
+  </si>
+  <si>
+    <t>GBP 113.00</t>
+  </si>
+  <si>
+    <t>GBP 242.00</t>
+  </si>
+  <si>
+    <t>GBP 591.00</t>
+  </si>
+  <si>
+    <t>GBP 45.00</t>
+  </si>
+  <si>
+    <t>GBP 571.00</t>
+  </si>
+  <si>
+    <t>GBP 49.00</t>
+  </si>
+  <si>
+    <t>GBP 54.00</t>
+  </si>
+  <si>
+    <t>GBP 58.00</t>
+  </si>
+  <si>
+    <t>GBP 286.00</t>
+  </si>
+  <si>
+    <t>GBP 425.00</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
     <t>FALSE</t>
   </si>
   <si>
-    <t>GBP 31.00</t>
-  </si>
-  <si>
-    <t>GBP 39.00</t>
-  </si>
-  <si>
-    <t>GBP 113.00</t>
-  </si>
-  <si>
-    <t>GBP 242.00</t>
-  </si>
-  <si>
-    <t>GBP 591.00</t>
-  </si>
-  <si>
-    <t>GBP 45.00</t>
-  </si>
-  <si>
-    <t>GBP 571.00</t>
-  </si>
-  <si>
-    <t>Major deviation hence FAIL</t>
-  </si>
-  <si>
-    <t>GBP 49.00</t>
-  </si>
-  <si>
-    <t>GBP 54.00</t>
-  </si>
-  <si>
-    <t>GBP 58.00</t>
-  </si>
-  <si>
-    <t>GBP 286.00</t>
-  </si>
-  <si>
-    <t>GBP 425.00</t>
+    <t>GBP 97.00</t>
+  </si>
+  <si>
+    <t>GBP 98.00</t>
+  </si>
+  <si>
+    <t>GBP 105.00</t>
+  </si>
+  <si>
+    <t>GBP 274.00</t>
+  </si>
+  <si>
+    <t>GBP 671.00</t>
+  </si>
+  <si>
+    <t>GBP 25.00</t>
+  </si>
+  <si>
+    <t>GBP 26.00</t>
+  </si>
+  <si>
+    <t>GBP 37.00</t>
+  </si>
+  <si>
+    <t>GBP 138.00</t>
+  </si>
+  <si>
+    <t>GBP 167.00</t>
   </si>
   <si>
     <t>GBP 38.00</t>
-  </si>
-  <si>
-    <t>GBP 105.00</t>
   </si>
   <si>
     <t>GBP 109.00</t>
@@ -434,7 +458,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="135">
+  <fonts count="243">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,6 +519,654 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1285,7 +1957,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="64">
+  <borders count="118">
     <border>
       <left/>
       <right/>
@@ -1482,11 +2154,173 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="261">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1676,8 +2510,116 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="61" fillId="0" fontId="130" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="131" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="62" fillId="0" fontId="132" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="134" fillId="0" borderId="63" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="133" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="63" fillId="0" fontId="134" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="135" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="64" fillId="0" fontId="136" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="137" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="65" fillId="0" fontId="138" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="139" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="66" fillId="0" fontId="140" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="141" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="67" fillId="0" fontId="142" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="143" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="68" fillId="0" fontId="144" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="145" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="69" fillId="0" fontId="146" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="147" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="70" fillId="0" fontId="148" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="149" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="71" fillId="0" fontId="150" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="151" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="72" fillId="0" fontId="152" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="153" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="73" fillId="0" fontId="154" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="155" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="74" fillId="0" fontId="156" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="157" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="75" fillId="0" fontId="158" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="159" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="76" fillId="0" fontId="160" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="161" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="77" fillId="0" fontId="162" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="163" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="78" fillId="0" fontId="164" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="165" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="79" fillId="0" fontId="166" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="167" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="80" fillId="0" fontId="168" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="169" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="81" fillId="0" fontId="170" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="171" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="82" fillId="0" fontId="172" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="173" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="83" fillId="0" fontId="174" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="175" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="84" fillId="0" fontId="176" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="177" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="85" fillId="0" fontId="178" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="179" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="86" fillId="0" fontId="180" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="181" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="87" fillId="0" fontId="182" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="183" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="88" fillId="0" fontId="184" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="185" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="89" fillId="0" fontId="186" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="187" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="90" fillId="0" fontId="188" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="189" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="91" fillId="0" fontId="190" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="191" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="92" fillId="0" fontId="192" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="193" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="93" fillId="0" fontId="194" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="195" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="94" fillId="0" fontId="196" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="197" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="95" fillId="0" fontId="198" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="199" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="96" fillId="0" fontId="200" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="201" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="97" fillId="0" fontId="202" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="203" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="98" fillId="0" fontId="204" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="205" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="99" fillId="0" fontId="206" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="207" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="100" fillId="0" fontId="208" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="209" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="101" fillId="0" fontId="210" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="211" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="102" fillId="0" fontId="212" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="213" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="103" fillId="0" fontId="214" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="215" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="104" fillId="0" fontId="216" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="217" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="105" fillId="0" fontId="218" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="219" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="106" fillId="0" fontId="220" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="221" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="107" fillId="0" fontId="222" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="223" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="108" fillId="0" fontId="224" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="225" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="109" fillId="0" fontId="226" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="227" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="110" fillId="0" fontId="228" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="229" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="111" fillId="0" fontId="230" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="231" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="112" fillId="0" fontId="232" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="233" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="113" fillId="0" fontId="234" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="235" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="114" fillId="0" fontId="236" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="237" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="115" fillId="0" fontId="238" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="239" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="116" fillId="0" fontId="240" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="242" fillId="0" borderId="117" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1961,24 +2903,25 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="255.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.07421875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.57421875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.03125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.66796875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="25.82421875" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="29.02734375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="255.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30.75" r="1" spans="1:7">
+    <row customHeight="1" ht="30.75" r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1992,239 +2935,368 @@
         <v>7</v>
       </c>
       <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27.75" r="2" s="1" spans="1:7">
+    <row customFormat="1" customHeight="1" ht="27.75" r="2" s="1" spans="1:8">
       <c r="A2" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="24.75" r="3" s="1" spans="1:7">
+      <c r="F2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="24.75" r="3" s="1" spans="1:8">
       <c r="A3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="E3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="23.25" r="4" s="1" spans="1:7">
+      <c r="F3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="23.25" r="4" s="1" spans="1:8">
       <c r="A4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="E4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row customHeight="1" ht="21" r="5" spans="1:7">
+      <c r="F4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21" r="5" spans="1:8">
       <c r="A5" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
+      <c r="C5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>122</v>
+      </c>
       <c r="E5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row customHeight="1" ht="24" r="6" spans="1:7">
+      <c r="F5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="24" r="6" spans="1:8">
       <c r="A6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
+      <c r="C6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>122</v>
+      </c>
       <c r="E6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row customHeight="1" ht="26.25" r="7" spans="1:7">
+      <c r="F6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="26.25" r="7" spans="1:8">
       <c r="A7" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
+      <c r="C7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>122</v>
+      </c>
       <c r="E7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row customHeight="1" ht="24" r="8" spans="1:7">
+      <c r="F7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="24" r="8" spans="1:8">
       <c r="A8" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
+      <c r="C8" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>122</v>
+      </c>
       <c r="E8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row customHeight="1" ht="21" r="9" spans="1:7">
+      <c r="F8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21" r="9" spans="1:8">
       <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
+      <c r="C9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>122</v>
+      </c>
       <c r="E9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row customHeight="1" ht="24.75" r="10" spans="1:7">
+      <c r="F9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="24.75" r="10" spans="1:8">
       <c r="A10" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+      <c r="C10" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>122</v>
+      </c>
       <c r="E10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="24" r="11" s="1" spans="1:7">
+      <c r="F10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="24" r="11" s="1" spans="1:8">
       <c r="A11" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="E11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="27" r="12" s="1" spans="1:7">
+      <c r="F11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="27" r="12" s="1" spans="1:8">
       <c r="A12" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="E12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="25.5" r="13" s="1" spans="1:7">
+      <c r="F12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="25.5" r="13" s="1" spans="1:8">
       <c r="A13" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="E13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row customHeight="1" ht="21.75" r="14" spans="1:7">
+      <c r="F13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.75" r="14" spans="1:8">
       <c r="A14" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="E14" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row customHeight="1" ht="22.5" r="15" spans="1:7">
+      <c r="F14" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="22.5" r="15" spans="1:8">
       <c r="A15" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="E15" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row customHeight="1" ht="21.75" r="16" spans="1:7">
+      <c r="F15" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.75" r="16" spans="1:8">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="E16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row customHeight="1" ht="26.25" r="17" spans="1:7">
       <c r="A17" s="14" t="s">
@@ -2233,13 +3305,21 @@
       <c r="B17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="E17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row customHeight="1" ht="24.75" r="18" spans="1:7">
       <c r="A18" s="14" t="s">
@@ -2248,13 +3328,21 @@
       <c r="B18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="C18" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="E18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="F18" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row customHeight="1" ht="26.25" r="19" spans="1:7">
       <c r="A19" s="14" t="s">
@@ -2263,33 +3351,29 @@
       <c r="B19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="C19" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="E19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
+      <c r="F19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="B22" s="6"/>
     </row>
-    <row customHeight="1" ht="87.75" r="23" spans="1:7">
-      <c r="A23" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row ht="30" r="24" spans="1:7">
-      <c r="A24" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
+    <row customHeight="1" ht="87.75" r="23" spans="1:7"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2304,7 +3388,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2332,18 +3416,18 @@
         <v>7</v>
       </c>
       <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>0</v>
@@ -2352,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>0</v>
@@ -2361,12 +3445,12 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>0</v>
@@ -2375,7 +3459,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="E3" s="21" t="s">
         <v>0</v>
@@ -2384,21 +3468,21 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>0</v>
@@ -2407,21 +3491,21 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>0</v>
@@ -2430,21 +3514,21 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>0</v>
@@ -2453,21 +3537,21 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>0</v>
@@ -2476,21 +3560,21 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>0</v>
@@ -2499,12 +3583,12 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>0</v>
@@ -2513,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>0</v>
@@ -2522,12 +3606,12 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>1</v>
@@ -2536,7 +3620,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>0</v>
@@ -2545,12 +3629,12 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>1</v>
@@ -2559,7 +3643,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>0</v>
@@ -2568,21 +3652,21 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>0</v>
@@ -2591,21 +3675,21 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>0</v>
@@ -2614,21 +3698,21 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>0</v>
@@ -2637,21 +3721,21 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>0</v>
@@ -2660,12 +3744,12 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>0</v>
@@ -2674,21 +3758,21 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G16" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>0</v>
@@ -2697,21 +3781,21 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G17" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>0</v>
@@ -2720,21 +3804,21 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G18" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>0</v>
@@ -2743,21 +3827,21 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F19" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G19" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>0</v>
@@ -2766,21 +3850,21 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F20" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G20" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>0</v>
@@ -2789,21 +3873,21 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F21" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" t="s">
         <v>123</v>
-      </c>
-      <c r="G21" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>0</v>
@@ -2812,16 +3896,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F22" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G22" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2837,8 +3921,8 @@
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2866,216 +3950,430 @@
         <v>7</v>
       </c>
       <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>122</v>
+      </c>
       <c r="E2" s="20" t="s">
         <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="25"/>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>123</v>
+      </c>
       <c r="E3" s="20" t="s">
         <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
+      </c>
+      <c r="C4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" t="s">
+        <v>122</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
+      </c>
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" t="s">
+        <v>122</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="C6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" t="s">
+        <v>122</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" t="s">
+        <v>122</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>122</v>
+      </c>
       <c r="E8" s="20" t="s">
         <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="25"/>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>123</v>
+      </c>
       <c r="E9" s="20" t="s">
         <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>1</v>
       </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>122</v>
+      </c>
       <c r="E10" s="20" t="s">
         <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>2</v>
       </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>122</v>
+      </c>
       <c r="E11" s="20" t="s">
         <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="C12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" t="s">
+        <v>122</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
+      </c>
+      <c r="C13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" t="s">
+        <v>122</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>122</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>1</v>
       </c>
+      <c r="F14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>122</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>1</v>
       </c>
+      <c r="F15" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>122</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>122</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="21" t="s">
+      <c r="B19" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="21" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="D22" s="26"/>
     </row>
   </sheetData>
@@ -3089,10 +4387,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3106,7 +4404,7 @@
     <col min="7" max="7" bestFit="true" customWidth="true" width="29.02734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="44.25" r="1" spans="1:7">
+    <row customHeight="1" ht="44.25" r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -3120,41 +4418,42 @@
         <v>7</v>
       </c>
       <c r="E1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="24"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="19" t="s">
         <v>84</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="19" t="s">
-        <v>85</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>1</v>
@@ -3163,159 +4462,159 @@
         <v>0</v>
       </c>
       <c r="D3" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="20" t="s">
+      <c r="C5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
         <v>112</v>
       </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" s="20" t="s">
+      <c r="D6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="C5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="20" t="s">
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>114</v>
       </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="19" t="s">
+      <c r="D8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="19" t="s">
+      <c r="B9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="19" t="s">
         <v>91</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="19" t="s">
-        <v>92</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>1</v>
@@ -3324,7 +4623,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>0</v>
@@ -3333,12 +4632,12 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>1</v>
@@ -3347,7 +4646,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>0</v>
@@ -3356,105 +4655,105 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="19" t="s">
+      <c r="B13" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="19" t="s">
+      <c r="B14" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="19" t="s">
+      <c r="B15" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="C15" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="24" t="s">
-        <v>98</v>
-      </c>
       <c r="B16" s="21" t="s">
         <v>0</v>
       </c>
@@ -3462,7 +4761,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>0</v>
@@ -3471,12 +4770,12 @@
         <v>126</v>
       </c>
       <c r="G16" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>0</v>
@@ -3485,21 +4784,21 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G17" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B18" s="21" t="s">
         <v>0</v>
@@ -3508,21 +4807,21 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G18" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B19" s="21" t="s">
         <v>0</v>
@@ -3531,21 +4830,21 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F19" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="G19" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="21" t="s">
         <v>0</v>
@@ -3554,21 +4853,21 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F20" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="G20" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B21" s="21" t="s">
         <v>0</v>
@@ -3577,21 +4876,21 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F21" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="G21" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>0</v>
@@ -3600,21 +4899,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F22" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="G22" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="D25" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
